--- a/factorPlan.xlsx
+++ b/factorPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC1DED-7B05-4711-8E8B-3C08B4B1EA1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A663523-E9AA-4E7F-B876-807F6DD7E4AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>p</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Cr</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -88,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -404,15 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05049D3-DB03-465C-9896-7F322415BA28}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +441,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.99264316295971688</v>
       </c>
@@ -457,8 +467,11 @@
       <c r="G2">
         <v>0.81521457489878557</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>157181907.30053836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.41392092381457696</v>
       </c>
@@ -480,8 +493,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>271503998.20169044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.99316192244026724</v>
       </c>
@@ -503,8 +519,11 @@
       <c r="G4">
         <v>0.8235222672064777</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>195565938.7494348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.41652586069550274</v>
       </c>
@@ -526,8 +545,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>271516432.55770361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.99571753846777311</v>
       </c>
@@ -549,8 +571,11 @@
       <c r="G6">
         <v>0.59019838056680185</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>159878389.82417369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.57847675237063201</v>
       </c>
@@ -572,8 +597,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>273031532.1993314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.99562127509853371</v>
       </c>
@@ -595,8 +623,11 @@
       <c r="G8">
         <v>0.59844129554655867</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>196062190.18067056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.5776659128703574</v>
       </c>
@@ -618,8 +649,41 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9" s="1">
+        <v>273028006.62591219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.69286652163331164</v>
+      </c>
+      <c r="B11">
+        <v>19.506019329844317</v>
+      </c>
+      <c r="C11">
+        <v>77.17342019193066</v>
+      </c>
+      <c r="D11">
+        <v>1.7824519891172426</v>
+      </c>
+      <c r="E11">
+        <v>7.0520752595391523</v>
+      </c>
+      <c r="F11">
+        <v>4.8059493667163902E-2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>181569460.37169278</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/factorPlan.xlsx
+++ b/factorPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A663523-E9AA-4E7F-B876-807F6DD7E4AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ECF847-DBD6-4524-9D1F-F91BC70007C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>p</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Cr</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,9 +438,6 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -467,9 +461,7 @@
       <c r="G2">
         <v>0.81521457489878557</v>
       </c>
-      <c r="I2" s="1">
-        <v>157181907.30053836</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -493,9 +485,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>271503998.20169044</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -519,9 +509,7 @@
       <c r="G4">
         <v>0.8235222672064777</v>
       </c>
-      <c r="I4" s="1">
-        <v>195565938.7494348</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -545,9 +533,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
-        <v>271516432.55770361</v>
-      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -571,9 +557,7 @@
       <c r="G6">
         <v>0.59019838056680185</v>
       </c>
-      <c r="I6" s="1">
-        <v>159878389.82417369</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -597,9 +581,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
-        <v>273031532.1993314</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -623,9 +605,7 @@
       <c r="G8">
         <v>0.59844129554655867</v>
       </c>
-      <c r="I8" s="1">
-        <v>196062190.18067056</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -649,38 +629,13 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
-        <v>273028006.62591219</v>
-      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.69286652163331164</v>
-      </c>
-      <c r="B11">
-        <v>19.506019329844317</v>
-      </c>
-      <c r="C11">
-        <v>77.17342019193066</v>
-      </c>
-      <c r="D11">
-        <v>1.7824519891172426</v>
-      </c>
-      <c r="E11">
-        <v>7.0520752595391523</v>
-      </c>
-      <c r="F11">
-        <v>4.8059493667163902E-2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>181569460.37169278</v>
-      </c>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/factorPlan.xlsx
+++ b/factorPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ECF847-DBD6-4524-9D1F-F91BC70007C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44719AD8-3100-445F-992C-D112664FDE3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
+    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="A11:G11"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,46 +441,46 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.99264316295971688</v>
+        <v>0.99192006418782352</v>
       </c>
       <c r="B2">
-        <v>312.12854923870157</v>
+        <v>309.04873793997922</v>
       </c>
       <c r="C2">
-        <v>362.06187047053123</v>
+        <v>358.78133278908865</v>
       </c>
       <c r="D2">
-        <v>28.023503117560548</v>
+        <v>27.841416924210222</v>
       </c>
       <c r="E2">
-        <v>32.507469817275108</v>
+        <v>32.321726780561526</v>
       </c>
       <c r="F2">
-        <v>3.9758227588960214E-2</v>
+        <v>3.9965666361292028E-2</v>
       </c>
       <c r="G2">
-        <v>0.81521457489878557</v>
+        <v>0.81809763313609429</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.41392092381457696</v>
+        <v>0.41576993050007366</v>
       </c>
       <c r="B3">
-        <v>0.64597277561684974</v>
+        <v>0.63614330392880969</v>
       </c>
       <c r="C3">
-        <v>50.458349840606189</v>
+        <v>50.649184543720274</v>
       </c>
       <c r="D3">
-        <v>5.8695471333007856E-2</v>
+        <v>5.8158574597718234E-2</v>
       </c>
       <c r="E3">
-        <v>4.5673255682130129</v>
+        <v>4.5899016244759911</v>
       </c>
       <c r="F3">
-        <v>4.9860037691294101E-2</v>
+        <v>4.9881197410415891E-2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -489,46 +489,46 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.99316192244026724</v>
+        <v>0.99302983780383469</v>
       </c>
       <c r="B4">
-        <v>493.86664959717433</v>
+        <v>493.29602857262228</v>
       </c>
       <c r="C4">
-        <v>543.91819938699985</v>
+        <v>543.36442854871279</v>
       </c>
       <c r="D4">
-        <v>44.3557049287623</v>
+        <v>44.176281137638632</v>
       </c>
       <c r="E4">
-        <v>48.851071378872923</v>
+        <v>48.660122922003112</v>
       </c>
       <c r="F4">
-        <v>3.9651920370091596E-2</v>
+        <v>3.9668328896154847E-2</v>
       </c>
       <c r="G4">
-        <v>0.8235222672064777</v>
+        <v>0.82415680473372777</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.41652586069550274</v>
+        <v>0.41404917254056373</v>
       </c>
       <c r="B5">
-        <v>0.66395766552398106</v>
+        <v>0.66391526960534264</v>
       </c>
       <c r="C5">
-        <v>50.55122419596762</v>
+        <v>50.563002234733524</v>
       </c>
       <c r="D5">
-        <v>6.0726437064151033E-2</v>
+        <v>6.0541303868021513E-2</v>
       </c>
       <c r="E5">
-        <v>4.595989792443989</v>
+        <v>4.57574622778115</v>
       </c>
       <c r="F5">
-        <v>5.0096548833874051E-2</v>
+        <v>4.9787033783367851E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,46 +537,46 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.99571753846777311</v>
+        <v>0.99567415815144966</v>
       </c>
       <c r="B6">
-        <v>371.28333227393654</v>
+        <v>369.42540183886729</v>
       </c>
       <c r="C6">
-        <v>441.38330873923201</v>
+        <v>439.19591220053155</v>
       </c>
       <c r="D6">
-        <v>29.045113864712594</v>
+        <v>29.019001235661467</v>
       </c>
       <c r="E6">
-        <v>34.530570990423101</v>
+        <v>34.500907330906742</v>
       </c>
       <c r="F6">
-        <v>2.8388750620416809E-2</v>
+        <v>2.8590665341237879E-2</v>
       </c>
       <c r="G6">
-        <v>0.59019838056680185</v>
+        <v>0.59371893491124283</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.57847675237063201</v>
+        <v>0.58209682934979312</v>
       </c>
       <c r="B7">
-        <v>4.8775238906044018</v>
+        <v>4.9649386060882179</v>
       </c>
       <c r="C7">
-        <v>74.847242777130319</v>
+        <v>75.215080466535213</v>
       </c>
       <c r="D7">
-        <v>0.45771351048295639</v>
+        <v>0.46776842509144151</v>
       </c>
       <c r="E7">
-        <v>6.992962625534755</v>
+        <v>7.0530153530681581</v>
       </c>
       <c r="F7">
-        <v>4.9605447423018111E-2</v>
+        <v>4.9717410754572845E-2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -585,46 +585,46 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.99562127509853371</v>
+        <v>0.99556162762487743</v>
       </c>
       <c r="B8">
-        <v>564.49647269560955</v>
+        <v>566.64059494631329</v>
       </c>
       <c r="C8">
-        <v>634.64599600256713</v>
+        <v>636.60514534259335</v>
       </c>
       <c r="D8">
-        <v>44.437786068882147</v>
+        <v>44.535249379858293</v>
       </c>
       <c r="E8">
-        <v>49.961139366962051</v>
+        <v>50.035471042989293</v>
       </c>
       <c r="F8">
-        <v>2.8407709183388367E-2</v>
+        <v>2.84876157383195E-2</v>
       </c>
       <c r="G8">
-        <v>0.59844129554655867</v>
+        <v>0.60106508875739573</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.5776659128703574</v>
+        <v>0.57946601858870461</v>
       </c>
       <c r="B9">
-        <v>4.8409386677177526</v>
+        <v>4.8851188109152215</v>
       </c>
       <c r="C9">
-        <v>74.59145290853823</v>
+        <v>74.825815937534017</v>
       </c>
       <c r="D9">
-        <v>0.45602265835305672</v>
+        <v>0.46037536729605977</v>
       </c>
       <c r="E9">
-        <v>6.992928766488463</v>
+        <v>7.0065957982973215</v>
       </c>
       <c r="F9">
-        <v>4.9696796493132661E-2</v>
+        <v>4.9707888315580873E-2</v>
       </c>
       <c r="G9">
         <v>1</v>

--- a/factorPlan.xlsx
+++ b/factorPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44719AD8-3100-445F-992C-D112664FDE3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2CE3E6-F154-4E17-8897-CF87941D304F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
+    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -441,46 +441,46 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.99192006418782352</v>
+        <v>0.82103640006343959</v>
       </c>
       <c r="B2">
-        <v>309.04873793997922</v>
+        <v>59.596481616163175</v>
       </c>
       <c r="C2">
-        <v>358.78133278908865</v>
+        <v>109.33876193125248</v>
       </c>
       <c r="D2">
-        <v>27.841416924210222</v>
+        <v>5.7063505507075698</v>
       </c>
       <c r="E2">
-        <v>32.321726780561526</v>
+        <v>10.443132976100596</v>
       </c>
       <c r="F2">
-        <v>3.9965666361292028E-2</v>
+        <v>4.954011633923612E-2</v>
       </c>
       <c r="G2">
-        <v>0.81809763313609429</v>
+        <v>0.99708457711442777</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.41576993050007366</v>
+        <v>0.49759506550443372</v>
       </c>
       <c r="B3">
-        <v>0.63614330392880969</v>
+        <v>2.393791953299413</v>
       </c>
       <c r="C3">
-        <v>50.649184543720274</v>
+        <v>52.358703711430188</v>
       </c>
       <c r="D3">
-        <v>5.8158574597718234E-2</v>
+        <v>0.21829654045130034</v>
       </c>
       <c r="E3">
-        <v>4.5899016244759911</v>
+        <v>4.7572732810510301</v>
       </c>
       <c r="F3">
-        <v>4.9881197410415891E-2</v>
+        <v>4.9799546026457434E-2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -489,46 +489,46 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.99302983780383469</v>
+        <v>0.82973880267082489</v>
       </c>
       <c r="B4">
-        <v>493.29602857262228</v>
+        <v>66.315339861052351</v>
       </c>
       <c r="C4">
-        <v>543.36442854871279</v>
+        <v>116.36566532613118</v>
       </c>
       <c r="D4">
-        <v>44.176281137638632</v>
+        <v>6.4070867537784864</v>
       </c>
       <c r="E4">
-        <v>48.660122922003112</v>
+        <v>11.195277022387527</v>
       </c>
       <c r="F4">
-        <v>3.9668328896154847E-2</v>
+        <v>4.9739619082200426E-2</v>
       </c>
       <c r="G4">
-        <v>0.82415680473372777</v>
+        <v>0.9996069651741295</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.41404917254056373</v>
+        <v>0.49870370858137936</v>
       </c>
       <c r="B5">
-        <v>0.66391526960534264</v>
+        <v>2.5654178581951759</v>
       </c>
       <c r="C5">
-        <v>50.563002234733524</v>
+        <v>52.667609791516625</v>
       </c>
       <c r="D5">
-        <v>6.0541303868021513E-2</v>
+        <v>0.2334209150732047</v>
       </c>
       <c r="E5">
-        <v>4.57574622778115</v>
+        <v>4.7716545362031138</v>
       </c>
       <c r="F5">
-        <v>4.9787033783367851E-2</v>
+        <v>4.9770961700577224E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,94 +537,94 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.99567415815144966</v>
+        <v>0.98512795955979449</v>
       </c>
       <c r="B6">
-        <v>369.42540183886729</v>
+        <v>282.26831341230047</v>
       </c>
       <c r="C6">
-        <v>439.19591220053155</v>
+        <v>352.20163075562033</v>
       </c>
       <c r="D6">
-        <v>29.019001235661467</v>
+        <v>26.109447201780959</v>
       </c>
       <c r="E6">
-        <v>34.500907330906742</v>
+        <v>32.576447618591835</v>
       </c>
       <c r="F6">
-        <v>2.8590665341237879E-2</v>
+        <v>4.2289124185043318E-2</v>
       </c>
       <c r="G6">
-        <v>0.59371893491124283</v>
+        <v>0.86748258706467674</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.58209682934979312</v>
+        <v>0.69411213088865342</v>
       </c>
       <c r="B7">
-        <v>4.9649386060882179</v>
+        <v>16.894381522615269</v>
       </c>
       <c r="C7">
-        <v>75.215080466535213</v>
+        <v>86.799372217087367</v>
       </c>
       <c r="D7">
-        <v>0.46776842509144151</v>
+        <v>1.6015430149356293</v>
       </c>
       <c r="E7">
-        <v>7.0530153530681581</v>
+        <v>8.1927421304337607</v>
       </c>
       <c r="F7">
-        <v>4.9717410754572845E-2</v>
+        <v>4.964903186304867E-2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.99996019900497513</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.99556162762487743</v>
+        <v>0.98758679436703245</v>
       </c>
       <c r="B8">
-        <v>566.64059494631329</v>
+        <v>443.19499913537118</v>
       </c>
       <c r="C8">
-        <v>636.60514534259335</v>
+        <v>512.89240166461957</v>
       </c>
       <c r="D8">
-        <v>44.535249379858293</v>
+        <v>40.941688141409848</v>
       </c>
       <c r="E8">
-        <v>50.035471042989293</v>
+        <v>47.379355299871008</v>
       </c>
       <c r="F8">
-        <v>2.84876157383195E-2</v>
+        <v>4.2515071856076031E-2</v>
       </c>
       <c r="G8">
-        <v>0.60106508875739573</v>
+        <v>0.88089054726368099</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.57946601858870461</v>
+        <v>0.69442643368351109</v>
       </c>
       <c r="B9">
-        <v>4.8851188109152215</v>
+        <v>17.157923447101833</v>
       </c>
       <c r="C9">
-        <v>74.825815937534017</v>
+        <v>87.022708790392315</v>
       </c>
       <c r="D9">
-        <v>0.46037536729605977</v>
+        <v>1.6352059752205623</v>
       </c>
       <c r="E9">
-        <v>7.0065957982973215</v>
+        <v>8.2563582503754969</v>
       </c>
       <c r="F9">
-        <v>4.9707888315580873E-2</v>
+        <v>4.9698996699288185E-2</v>
       </c>
       <c r="G9">
         <v>1</v>

--- a/factorPlan.xlsx
+++ b/factorPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2CE3E6-F154-4E17-8897-CF87941D304F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3D1B0-AD7A-4842-A791-7A9A1F4AA76A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
+    <workbookView xWindow="1560" yWindow="2160" windowWidth="15375" windowHeight="7875" xr2:uid="{403EA215-FED8-4E97-8932-52BA0A88B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -441,46 +441,46 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.82103640006343959</v>
+        <v>0.82359664910337094</v>
       </c>
       <c r="B2">
-        <v>59.596481616163175</v>
+        <v>60.504708689265719</v>
       </c>
       <c r="C2">
-        <v>109.33876193125248</v>
+        <v>110.39364312958872</v>
       </c>
       <c r="D2">
-        <v>5.7063505507075698</v>
+        <v>5.8103341686550323</v>
       </c>
       <c r="E2">
-        <v>10.443132976100596</v>
+        <v>8.7571240145431428</v>
       </c>
       <c r="F2">
-        <v>4.954011633923612E-2</v>
+        <v>4.9527713748083298E-2</v>
       </c>
       <c r="G2">
-        <v>0.99708457711442777</v>
+        <v>0.99723364485981347</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.49759506550443372</v>
+        <v>0.49714932718541721</v>
       </c>
       <c r="B3">
-        <v>2.393791953299413</v>
+        <v>2.5521100746471324</v>
       </c>
       <c r="C3">
-        <v>52.358703711430188</v>
+        <v>52.416182076707805</v>
       </c>
       <c r="D3">
-        <v>0.21829654045130034</v>
+        <v>0.23299097034416449</v>
       </c>
       <c r="E3">
-        <v>4.7572732810510301</v>
+        <v>4.7605833299074307</v>
       </c>
       <c r="F3">
-        <v>4.9799546026457434E-2</v>
+        <v>4.9853429487993706E-2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -489,46 +489,46 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82973880267082489</v>
+        <v>0.82905778667697583</v>
       </c>
       <c r="B4">
-        <v>66.315339861052351</v>
+        <v>67.371752714953345</v>
       </c>
       <c r="C4">
-        <v>116.36566532613118</v>
+        <v>117.41639955758728</v>
       </c>
       <c r="D4">
-        <v>6.4070867537784864</v>
+        <v>6.4830477065394483</v>
       </c>
       <c r="E4">
-        <v>11.195277022387527</v>
+        <v>9.4313950492109733</v>
       </c>
       <c r="F4">
-        <v>4.9739619082200426E-2</v>
+        <v>4.9699712128637129E-2</v>
       </c>
       <c r="G4">
-        <v>0.9996069651741295</v>
+        <v>0.99966355140186913</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.49870370858137936</v>
+        <v>0.49584941135451704</v>
       </c>
       <c r="B5">
-        <v>2.5654178581951759</v>
+        <v>2.3780666841224516</v>
       </c>
       <c r="C5">
-        <v>52.667609791516625</v>
+        <v>52.121953723088332</v>
       </c>
       <c r="D5">
-        <v>0.2334209150732047</v>
+        <v>0.21678359108694065</v>
       </c>
       <c r="E5">
-        <v>4.7716545362031138</v>
+        <v>4.7276239208047892</v>
       </c>
       <c r="F5">
-        <v>4.9770961700577224E-2</v>
+        <v>4.9842978467179437E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,94 +537,94 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.98512795955979449</v>
+        <v>0.98694754083851</v>
       </c>
       <c r="B6">
-        <v>282.26831341230047</v>
+        <v>329.05253511060943</v>
       </c>
       <c r="C6">
-        <v>352.20163075562033</v>
+        <v>399.11598607270912</v>
       </c>
       <c r="D6">
-        <v>26.109447201780959</v>
+        <v>30.345433955221136</v>
       </c>
       <c r="E6">
-        <v>32.576447618591835</v>
+        <v>33.29533723013175</v>
       </c>
       <c r="F6">
-        <v>4.2289124185043318E-2</v>
+        <v>4.2272615718793351E-2</v>
       </c>
       <c r="G6">
-        <v>0.86748258706467674</v>
+        <v>0.86443925233644869</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.69411213088865342</v>
+        <v>0.69376573655394991</v>
       </c>
       <c r="B7">
-        <v>16.894381522615269</v>
+        <v>17.285765820098131</v>
       </c>
       <c r="C7">
-        <v>86.799372217087367</v>
+        <v>87.248421417069707</v>
       </c>
       <c r="D7">
-        <v>1.6015430149356293</v>
+        <v>1.6436123255438195</v>
       </c>
       <c r="E7">
-        <v>8.1927421304337607</v>
+        <v>6.5950001235862974</v>
       </c>
       <c r="F7">
-        <v>4.964903186304867E-2</v>
+        <v>4.9580856956459293E-2</v>
       </c>
       <c r="G7">
-        <v>0.99996019900497513</v>
+        <v>0.99991121495327095</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.98758679436703245</v>
+        <v>0.98892699647104654</v>
       </c>
       <c r="B8">
-        <v>443.19499913537118</v>
+        <v>512.93470730967158</v>
       </c>
       <c r="C8">
-        <v>512.89240166461957</v>
+        <v>582.98936064529823</v>
       </c>
       <c r="D8">
-        <v>40.941688141409848</v>
+        <v>47.414584470346533</v>
       </c>
       <c r="E8">
-        <v>47.379355299871008</v>
+        <v>50.363522676777727</v>
       </c>
       <c r="F8">
-        <v>4.2515071856076031E-2</v>
+        <v>4.2397644975176584E-2</v>
       </c>
       <c r="G8">
-        <v>0.88089054726368099</v>
+        <v>0.87759813084112137</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.69442643368351109</v>
+        <v>0.69521427957763671</v>
       </c>
       <c r="B9">
-        <v>17.157923447101833</v>
+        <v>16.781117002984281</v>
       </c>
       <c r="C9">
-        <v>87.022708790392315</v>
+        <v>86.862384237690137</v>
       </c>
       <c r="D9">
-        <v>1.6352059752205623</v>
+        <v>1.5966087481729352</v>
       </c>
       <c r="E9">
-        <v>8.2563582503754969</v>
+        <v>6.5427831588150953</v>
       </c>
       <c r="F9">
-        <v>4.9698996699288185E-2</v>
+        <v>4.9602174561291235E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
